--- a/data/trans_camb/LAWTONB_2R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R3-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.3485187292296466</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1257561104691093</v>
+        <v>0.125756110469108</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.104067717437533</v>
@@ -664,7 +664,7 @@
         <v>-0.2230363358637341</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2723311521739588</v>
+        <v>0.272331152173963</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.19880706097732</v>
+        <v>-1.365444721334753</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.116668667842903</v>
+        <v>-3.591631028497617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.376559657789915</v>
+        <v>-3.095926853895949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.289728212020786</v>
+        <v>-3.264468928224594</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.894893613770862</v>
+        <v>-4.461326383367526</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.591645248985505</v>
+        <v>-3.786002100255883</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.479687868145313</v>
+        <v>-1.074061740582827</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.337705159813033</v>
+        <v>-2.821556445852429</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.33049961369461</v>
+        <v>-2.487058953916002</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.805837704981768</v>
+        <v>8.111233941469893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.900500812365876</v>
+        <v>3.846321522056289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.734417637056906</v>
+        <v>3.522767431102555</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.905029386347432</v>
+        <v>5.727240413099953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.753906884188898</v>
+        <v>3.897453896035481</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.820947713586841</v>
+        <v>3.688201225019726</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.382337871723403</v>
+        <v>5.406033933225056</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.418189100168397</v>
+        <v>3.213599701514541</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.669590795862134</v>
+        <v>2.803869235347771</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.0351343929436655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01267755282493681</v>
+        <v>0.01267755282493667</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2534835923092414</v>
@@ -769,7 +769,7 @@
         <v>-0.02686988216286261</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.03280858224222967</v>
+        <v>0.03280858224223017</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1762995837943778</v>
+        <v>-0.1835679197129688</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4936161617598083</v>
+        <v>-0.4656581090026569</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3892927223687867</v>
+        <v>-0.3565419485255889</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2987186794244269</v>
+        <v>-0.2703169341075599</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3962077687645656</v>
+        <v>-0.3678336736595915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2974296796499235</v>
+        <v>-0.3022289442226244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1419191242558496</v>
+        <v>-0.1252617009805931</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3454382636737648</v>
+        <v>-0.3050462330764924</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2303402747034381</v>
+        <v>-0.2439618575837978</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.806813373713396</v>
+        <v>1.718579105905822</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.866516254400799</v>
+        <v>0.9052513635873423</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8552644535414978</v>
+        <v>0.795520823946142</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7313571051639857</v>
+        <v>0.7415378322836875</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4792767837601811</v>
+        <v>0.5004797003855552</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5110269622993404</v>
+        <v>0.4754072920525503</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8161763471047557</v>
+        <v>0.7948512488291709</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3460637393762436</v>
+        <v>0.4986676900405814</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4088057404612109</v>
+        <v>0.4296944282056659</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>4.472767902662311</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.938547299469849</v>
+        <v>5.938547299469842</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>12.37554220728696</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.390259109126106</v>
+        <v>4.773525363075422</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.261441481472101</v>
+        <v>-2.824749697854533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.288824135614639</v>
+        <v>-1.116284896321901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.731730141212256</v>
+        <v>5.476916006300568</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.190296263908007</v>
+        <v>2.015516873987039</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.69738375659405</v>
+        <v>12.13162622022856</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.730723488991916</v>
+        <v>6.668637995535369</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.503481205049291</v>
+        <v>1.611411162787881</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.414192933321447</v>
+        <v>8.542699360566846</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.39147285016084</v>
+        <v>21.61175102455152</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.846593633753</v>
+        <v>11.25070045886826</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.28742994660585</v>
+        <v>12.12796760430983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.17946101936773</v>
+        <v>19.9844028535138</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.77339462782567</v>
+        <v>16.31635273062708</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>23.77079505670388</v>
+        <v>24.59822612374682</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.72266518332663</v>
+        <v>18.3048695497581</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.96811261694509</v>
+        <v>13.01771164773677</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.83396116274802</v>
+        <v>18.28038183365678</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2044374104922632</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2714339886196189</v>
+        <v>0.2714339886196186</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4500085443783642</v>
@@ -974,7 +974,7 @@
         <v>0.3375005284112378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6682557955945979</v>
+        <v>0.6682557955945977</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4941883262081369</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1574660573011871</v>
+        <v>0.1530048935619719</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1247262867108186</v>
+        <v>-0.1151866362540211</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05713047562804442</v>
+        <v>-0.04536995575353435</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1444023848047014</v>
+        <v>0.1647485309899885</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07445882479998565</v>
+        <v>0.06307150941803331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3565473266015652</v>
+        <v>0.3814749618925476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2329726655070919</v>
+        <v>0.2482810930113545</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08595619690514907</v>
+        <v>0.06150386001175907</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3066103198529954</v>
+        <v>0.2979846443657467</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.178541090283188</v>
+        <v>1.189856779441769</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6971948363744623</v>
+        <v>0.6364432669851756</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7104211151423906</v>
+        <v>0.6683793647008982</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8003439504062254</v>
+        <v>0.8605484457283442</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7228236906576008</v>
+        <v>0.6835130367499824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.007103593620426</v>
+        <v>1.079319704543661</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7761292811800586</v>
+        <v>0.8599087318896472</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5639600452519252</v>
+        <v>0.5893121897366562</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8181344476468285</v>
+        <v>0.8357019405171449</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.198212475854908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.119495704087222</v>
+        <v>3.119495704087225</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.579388386445096</v>
@@ -1083,7 +1083,7 @@
         <v>4.97559861583709</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.839144031445318</v>
+        <v>9.839144031445324</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.710542573483931</v>
@@ -1092,7 +1092,7 @@
         <v>3.742997347620605</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.783387677473551</v>
+        <v>6.783387677473546</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.269678676857578</v>
+        <v>3.253903102736424</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.455752200611404</v>
+        <v>-1.549431662688486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7319676274363424</v>
+        <v>-0.5962657860921808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.822864432517094</v>
+        <v>3.025810631489767</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8487689946312543</v>
+        <v>0.1678594216230788</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.954303907286015</v>
+        <v>6.092705086890248</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.37881815227038</v>
+        <v>4.375523438114011</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7534348163112708</v>
+        <v>0.6518184049451039</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.063670927537958</v>
+        <v>3.984299124841599</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.68168207364756</v>
+        <v>12.50360381788814</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.924891877809184</v>
+        <v>6.301084606281526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.594454459049803</v>
+        <v>6.538401941744231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.01414398918661</v>
+        <v>12.18031134595848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.759360042541935</v>
+        <v>9.450557711491102</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.19661271789989</v>
+        <v>13.44921351203563</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.08838024629557</v>
+        <v>10.74660718321247</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.924027314109709</v>
+        <v>6.708595072589459</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.47428636130406</v>
+        <v>9.632644619860791</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1708386757543967</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.242438126869664</v>
+        <v>0.2424381268696642</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4076493792774134</v>
@@ -1188,7 +1188,7 @@
         <v>0.2676073033685592</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5291879440051974</v>
+        <v>0.5291879440051978</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.477333721330285</v>
@@ -1197,7 +1197,7 @@
         <v>0.231716359236941</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4199366844104486</v>
+        <v>0.4199366844104482</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2124832806533511</v>
+        <v>0.2034626025494561</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09515376183902088</v>
+        <v>-0.1069628100938222</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04663436311801786</v>
+        <v>-0.03928383240104923</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1346708181380385</v>
+        <v>0.1415605058606426</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04045568399078332</v>
+        <v>0.001669818261825798</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2761000399487201</v>
+        <v>0.2880837998448437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2477575285750943</v>
+        <v>0.243820131713942</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04179738524582795</v>
+        <v>0.03364340973328352</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2155213052866881</v>
+        <v>0.2214832660184391</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.229889945317459</v>
+        <v>1.121544366587288</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5566620406991268</v>
+        <v>0.6017650601530017</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6184268313685848</v>
+        <v>0.6332340241842437</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7343612616822035</v>
+        <v>0.7540316046217568</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5974755440327778</v>
+        <v>0.5696958290881661</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.811684191791479</v>
+        <v>0.8491343700758575</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7580628360590183</v>
+        <v>0.7290435152688129</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4766863514542343</v>
+        <v>0.4511849865399991</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6593249768549839</v>
+        <v>0.6798490499756523</v>
       </c>
     </row>
     <row r="22">
